--- a/static/files/logements_sans_loyer.xlsx
+++ b/static/files/logements_sans_loyer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvain/Projects/apilos/static/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayoub.bouchachia\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCE255D-5D88-A84A-950F-AC44FBC0CE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C0D615-2E67-4C84-A94C-0AF96BA458E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-7080" windowWidth="38400" windowHeight="21100" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Logements" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Ici quelques explications</t>
   </si>
@@ -130,16 +130,18 @@
   </si>
   <si>
     <t>T1bis</t>
+  </si>
+  <si>
+    <t>Financement</t>
+  </si>
+  <si>
+    <t>Col 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="#,##0.00\ [$€-40C]"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0000"/>
-  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -213,7 +215,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -287,42 +289,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color theme="4" tint="0.39997558519241921"/>
@@ -348,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -362,36 +329,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -402,13 +351,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -804,648 +747,544 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08021C90-1ACF-2A4C-A1B0-58A48A8F7007}">
-  <dimension ref="A1:Q52"/>
+  <dimension ref="A1:O52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" customWidth="1"/>
-    <col min="2" max="9" width="20.83203125" customWidth="1"/>
+    <col min="1" max="1" width="29.625" customWidth="1"/>
+    <col min="2" max="9" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:15" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="E1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="F1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="G1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="34"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="36"/>
-    </row>
-    <row r="2" spans="1:17" ht="102" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+    </row>
+    <row r="2" spans="1:15" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="37"/>
-    </row>
-    <row r="3" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+    </row>
+    <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="33"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="10" t="s">
+      <c r="E3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="20" t="s">
+      <c r="F3" s="21"/>
+      <c r="G3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="24"/>
-      <c r="J4" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="25"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C5" s="6"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="24"/>
-    </row>
-    <row r="7" spans="1:17" ht="20" x14ac:dyDescent="0.2">
+      <c r="C6" s="8"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="25"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-    </row>
-    <row r="8" spans="1:17" ht="20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="24"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="25"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C9" s="6"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="24"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C10" s="8"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="25"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C11" s="6"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="24"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C12" s="8"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="25"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C13" s="6"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="24"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C14" s="8"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="25"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C15" s="6"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="24"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C16" s="8"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="25"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C17" s="6"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="24"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C18" s="8"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="25"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C19" s="6"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="24"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C20" s="8"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="25"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C21" s="6"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="24"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C22" s="8"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="25"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C23" s="6"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="24"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C24" s="8"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="25"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C25" s="6"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="24"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C26" s="8"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="25"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C27" s="6"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="24"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C28" s="8"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="25"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C29" s="6"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="24"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C30" s="8"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="25"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C31" s="6"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="9"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="24"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C32" s="8"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="25"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C33" s="6"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="9"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="24"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C34" s="8"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="7"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="25"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C35" s="6"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="9"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="24"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C36" s="8"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="7"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="25"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C37" s="6"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="9"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="24"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C38" s="8"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="25"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C39" s="6"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="9"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="24"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C40" s="8"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="25"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C41" s="6"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="9"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="24"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C42" s="8"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="25"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C43" s="6"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="9"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="24"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C44" s="8"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="25"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C45" s="6"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="9"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="24"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C46" s="8"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="7"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="25"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C47" s="6"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="9"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="24"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C48" s="8"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="7"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="25"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C49" s="6"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="9"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="24"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C50" s="8"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="7"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="25"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C51" s="6"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="26" t="str">
-        <f t="shared" ref="I6:I52" si="0">IF(F52*G52*H52&gt;0,F52*G52*H52,"")</f>
-        <v/>
-      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="E3:F3"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1471,43 +1310,43 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
     <col min="2" max="2" width="67" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>4</v>
       </c>
@@ -1526,60 +1365,60 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="30">
+      <c r="E2" s="18">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="31"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="31"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>27</v>
       </c>

--- a/static/files/logements_sans_loyer.xlsx
+++ b/static/files/logements_sans_loyer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayoub.bouchachia\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvain/Projects/apilos/static/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C0D615-2E67-4C84-A94C-0AF96BA458E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCE255D-5D88-A84A-950F-AC44FBC0CE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
+    <workbookView xWindow="-38400" yWindow="-7080" windowWidth="38400" windowHeight="21100" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Logements" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Ici quelques explications</t>
   </si>
@@ -130,18 +130,16 @@
   </si>
   <si>
     <t>T1bis</t>
-  </si>
-  <si>
-    <t>Financement</t>
-  </si>
-  <si>
-    <t>Col 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.00\ [$€-40C]"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -215,7 +213,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -289,7 +287,42 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39994506668294322"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color theme="4" tint="0.39997558519241921"/>
@@ -315,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -329,18 +362,36 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -351,7 +402,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -747,544 +804,648 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08021C90-1ACF-2A4C-A1B0-58A48A8F7007}">
-  <dimension ref="A1:O52"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.625" customWidth="1"/>
-    <col min="2" max="9" width="20.875" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="2" max="9" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:17" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="22" t="s">
+      <c r="C1" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="D1" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="E1" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="F1" s="34" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="G1" s="34"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="36"/>
+    </row>
+    <row r="2" spans="1:17" ht="102" x14ac:dyDescent="0.2">
+      <c r="A2" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-    </row>
-    <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="37"/>
+    </row>
+    <row r="3" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="21"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="33"/>
+      <c r="F3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="15" t="s">
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="24"/>
+      <c r="J4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="25"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="9"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="24"/>
+    </row>
+    <row r="7" spans="1:17" ht="20" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="25"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
-    </row>
-    <row r="8" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+    </row>
+    <row r="8" spans="1:17" ht="20" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="24"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="25"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="24"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="25"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="24"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="25"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="24"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="25"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="24"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="25"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="24"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="25"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="24"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="25"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="24"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="25"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="24"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="25"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="24"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="25"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="24"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="25"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="24"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="25"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
       <c r="B32" s="9"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="24"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="25"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
       <c r="B34" s="9"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="24"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="7"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="25"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
       <c r="B36" s="9"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="24"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
       <c r="B37" s="7"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="25"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="8"/>
       <c r="B38" s="9"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="24"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="25"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="8"/>
       <c r="B40" s="9"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="24"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="25"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="8"/>
       <c r="B42" s="9"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="24"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="25"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="8"/>
       <c r="B44" s="9"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="24"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="25"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="8"/>
       <c r="B46" s="9"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="24"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="6"/>
       <c r="B47" s="7"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="25"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="8"/>
       <c r="B48" s="9"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="24"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
       <c r="B49" s="7"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="25"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="8"/>
       <c r="B50" s="9"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="24"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
       <c r="B51" s="7"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="25"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="26" t="str">
+        <f t="shared" ref="I6:I52" si="0">IF(F52*G52*H52&gt;0,F52*G52*H52,"")</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="I1:I2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1310,43 +1471,43 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
     <col min="2" max="2" width="67" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>4</v>
       </c>
@@ -1365,60 +1526,60 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="42.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="30">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="19"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="31"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="19"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="31"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
